--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\Websites\Diecast Project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720644FD-ED5E-4247-B350-EE491E16FA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EA39C0-8677-482D-A5E7-3A44793B6993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50220" yWindow="12705" windowWidth="38370" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38430" yWindow="30" windowWidth="38370" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>1.jpg</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Mercedes Benz</t>
+  </si>
+  <si>
+    <t>5.jpg</t>
   </si>
 </sst>
 </file>
@@ -148,10 +151,10 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -199,14 +202,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}" name="Tabel1" displayName="Tabel1" ref="A1:E5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E5" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}" name="Tabel1" displayName="Tabel1" ref="A1:E6" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E6" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7B12B4C9-9D0F-404E-96CF-4402E82C6B53}" name="Merk" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{0DBF692F-6AFF-4005-806C-052F43D9E3CB}" name="Model" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{3F4E2485-ED26-4658-ACDA-601FA5625322}" name="Jaar" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{18D91A25-42F7-4C0C-B904-E9C2959ECF18}" name="Schaal" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{9E495D13-6349-42B7-ABE5-9A80A74124F7}" name="Foto" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{0DBF692F-6AFF-4005-806C-052F43D9E3CB}" name="Model" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{3F4E2485-ED26-4658-ACDA-601FA5625322}" name="Jaar" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{18D91A25-42F7-4C0C-B904-E9C2959ECF18}" name="Schaal" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{9E495D13-6349-42B7-ABE5-9A80A74124F7}" name="Foto" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -475,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,6 +579,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EA39C0-8677-482D-A5E7-3A44793B6993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291351A2-21AC-4915-BC8A-6EEF8CCE2687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38430" yWindow="30" windowWidth="38370" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>1.jpg</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Mercedes Benz</t>
-  </si>
-  <si>
-    <t>5.jpg</t>
   </si>
 </sst>
 </file>
@@ -202,8 +199,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}" name="Tabel1" displayName="Tabel1" ref="A1:E6" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E6" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}" name="Tabel1" displayName="Tabel1" ref="A1:E5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E5" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7B12B4C9-9D0F-404E-96CF-4402E82C6B53}" name="Merk" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{0DBF692F-6AFF-4005-806C-052F43D9E3CB}" name="Model" dataDxfId="3"/>
@@ -478,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,23 +576,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291351A2-21AC-4915-BC8A-6EEF8CCE2687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFE6DB6-0700-47E5-A241-DCB41D67A5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38430" yWindow="30" windowWidth="38370" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>1.jpg</t>
   </si>
@@ -85,16 +85,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -122,70 +114,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -196,20 +131,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}" name="Tabel1" displayName="Tabel1" ref="A1:E5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E5" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7B12B4C9-9D0F-404E-96CF-4402E82C6B53}" name="Merk" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{0DBF692F-6AFF-4005-806C-052F43D9E3CB}" name="Model" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{3F4E2485-ED26-4658-ACDA-601FA5625322}" name="Jaar" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{18D91A25-42F7-4C0C-B904-E9C2959ECF18}" name="Schaal" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{9E495D13-6349-42B7-ABE5-9A80A74124F7}" name="Foto" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,112 +395,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E601C30-0A40-4B5A-BCEE-4E305CFE4C02}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="5" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>1978</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>2009</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>1977</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>2014</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>2014</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFE6DB6-0700-47E5-A241-DCB41D67A5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE591CDA-58F9-4836-A947-65E7126968CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>1.jpg</t>
   </si>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E601C30-0A40-4B5A-BCEE-4E305CFE4C02}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,23 +492,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>2014</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE591CDA-58F9-4836-A947-65E7126968CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C2AACD-E132-4FCF-BB4A-6D5468DCC2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>1.jpg</t>
   </si>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E601C30-0A40-4B5A-BCEE-4E305CFE4C02}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,6 +492,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>2014</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C2AACD-E132-4FCF-BB4A-6D5468DCC2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA22F15-D5B8-4BCC-9764-CCF4D0EF0291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>1.jpg</t>
   </si>
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E601C30-0A40-4B5A-BCEE-4E305CFE4C02}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:E6"/>
@@ -492,23 +492,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>2014</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA22F15-D5B8-4BCC-9764-CCF4D0EF0291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C738DDCD-0AC5-45B3-9F6A-1684DF9B67B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>1.jpg</t>
   </si>
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E601C30-0A40-4B5A-BCEE-4E305CFE4C02}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:E6"/>
@@ -492,6 +492,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>2014</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C738DDCD-0AC5-45B3-9F6A-1684DF9B67B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB42F58-1832-4753-A853-1C2A237A8E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>1.jpg</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>Mercedes Benz</t>
+  </si>
+  <si>
+    <t>5.jpg</t>
+  </si>
+  <si>
+    <t>FW14B</t>
+  </si>
+  <si>
+    <t>Williams</t>
   </si>
 </sst>
 </file>
@@ -399,7 +408,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,19 +503,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>2014</v>
+        <v>1992</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB42F58-1832-4753-A853-1C2A237A8E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B541D9-444B-4CC2-A0C3-718E296F03FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B541D9-444B-4CC2-A0C3-718E296F03FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D67BBE-064E-4266-BDB7-A9A573F7D5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>1.jpg</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>Williams</t>
+  </si>
+  <si>
+    <t>Tyrrell</t>
+  </si>
+  <si>
+    <t>P34</t>
+  </si>
+  <si>
+    <t>6.jpg</t>
   </si>
 </sst>
 </file>
@@ -405,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E601C30-0A40-4B5A-BCEE-4E305CFE4C02}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,6 +527,23 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>1976</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D67BBE-064E-4266-BDB7-A9A573F7D5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7F9823-359B-4F97-92FD-15D0C8E71FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>1.jpg</t>
   </si>
@@ -97,6 +97,45 @@
   </si>
   <si>
     <t>6.jpg</t>
+  </si>
+  <si>
+    <t>Benetton</t>
+  </si>
+  <si>
+    <t>B194</t>
+  </si>
+  <si>
+    <t>7.jpg</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>8.jpg</t>
+  </si>
+  <si>
+    <t>9.jpg</t>
+  </si>
+  <si>
+    <t>10.jpg</t>
+  </si>
+  <si>
+    <t>Toleman</t>
+  </si>
+  <si>
+    <t>TG184</t>
+  </si>
+  <si>
+    <t>F2002</t>
+  </si>
+  <si>
+    <t>McLaren</t>
+  </si>
+  <si>
+    <t>MP 4/4</t>
+  </si>
+  <si>
+    <t>11.jpg</t>
   </si>
 </sst>
 </file>
@@ -414,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E601C30-0A40-4B5A-BCEE-4E305CFE4C02}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,6 +583,91 @@
         <v>23</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>1994</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>191</v>
+      </c>
+      <c r="C9">
+        <v>1991</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>1984</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>2002</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>1988</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7F9823-359B-4F97-92FD-15D0C8E71FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B19681E-F1F8-488B-83C6-CF77E7A099C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>1.jpg</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Jaar</t>
   </si>
   <si>
-    <t>Foto</t>
-  </si>
-  <si>
     <t>Merk</t>
   </si>
   <si>
@@ -136,6 +133,15 @@
   </si>
   <si>
     <t>11.jpg</t>
+  </si>
+  <si>
+    <t>Afbeelding</t>
+  </si>
+  <si>
+    <t>Opmerking</t>
+  </si>
+  <si>
+    <t>tekst</t>
   </si>
 </sst>
 </file>
@@ -453,23 +459,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E601C30-0A40-4B5A-BCEE-4E305CFE4C02}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F3" sqref="F3:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -478,15 +485,18 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1978</v>
@@ -497,13 +507,16 @@
       <c r="E2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
       </c>
       <c r="C3">
         <v>2009</v>
@@ -514,13 +527,16 @@
       <c r="E3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1977</v>
@@ -531,13 +547,16 @@
       <c r="E4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>2014</v>
@@ -548,13 +567,16 @@
       <c r="E5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>1992</v>
@@ -563,15 +585,18 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
       </c>
       <c r="C7">
         <v>1976</v>
@@ -580,15 +605,18 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
       </c>
       <c r="C8">
         <v>1994</v>
@@ -597,12 +625,15 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
       </c>
       <c r="B9">
         <v>191</v>
@@ -614,15 +645,18 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
       </c>
       <c r="C10">
         <v>1984</v>
@@ -631,15 +665,18 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>2002</v>
@@ -648,15 +685,18 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
       </c>
       <c r="C12">
         <v>1988</v>
@@ -665,7 +705,10 @@
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B19681E-F1F8-488B-83C6-CF77E7A099C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B02A3E-ED96-4245-8FE3-64515F324CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>1.jpg</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>tekst</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>Niki Lauda</t>
   </si>
 </sst>
 </file>
@@ -459,19 +465,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E601C30-0A40-4B5A-BCEE-4E305CFE4C02}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="1" max="6" width="27.85546875" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -485,13 +491,16 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -505,13 +514,16 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -524,14 +536,14 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -544,14 +556,14 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -564,14 +576,14 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -584,14 +596,14 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -604,14 +616,14 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -624,14 +636,14 @@
       <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -644,14 +656,14 @@
       <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -664,14 +676,14 @@
       <c r="D10" t="s">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>28</v>
       </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -684,14 +696,14 @@
       <c r="D11" t="s">
         <v>4</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>29</v>
       </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -704,10 +716,10 @@
       <c r="D12" t="s">
         <v>4</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>35</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>38</v>
       </c>
     </row>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B02A3E-ED96-4245-8FE3-64515F324CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63873D9C-239A-4A6C-8526-F2E27D1A8635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,10 +144,10 @@
     <t>tekst</t>
   </si>
   <si>
-    <t>Driver</t>
-  </si>
-  <si>
     <t>Niki Lauda</t>
+  </si>
+  <si>
+    <t>Coureur</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +491,7 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
         <v>36</v>
@@ -514,7 +514,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63873D9C-239A-4A6C-8526-F2E27D1A8635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3428E92-C4D7-4BEA-906B-A390F19B794E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>1.jpg</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>Opmerking</t>
-  </si>
-  <si>
-    <t>tekst</t>
   </si>
   <si>
     <t>Niki Lauda</t>
@@ -468,7 +465,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G2" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +488,7 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
         <v>36</v>
@@ -514,13 +511,10 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -539,9 +533,6 @@
       <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -559,9 +550,6 @@
       <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -579,9 +567,6 @@
       <c r="F5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -599,9 +584,6 @@
       <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -619,9 +601,6 @@
       <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -639,9 +618,6 @@
       <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -659,9 +635,6 @@
       <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -679,9 +652,6 @@
       <c r="F10" t="s">
         <v>28</v>
       </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -699,9 +669,6 @@
       <c r="F11" t="s">
         <v>29</v>
       </c>
-      <c r="G11" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -718,9 +685,6 @@
       </c>
       <c r="F12" t="s">
         <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3428E92-C4D7-4BEA-906B-A390F19B794E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC72B8D-D9B2-4166-A51D-D682850CB52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>1.jpg</t>
   </si>
@@ -145,6 +145,33 @@
   </si>
   <si>
     <t>Coureur</t>
+  </si>
+  <si>
+    <t>1978 Sweden Grand Prix</t>
+  </si>
+  <si>
+    <t>Jenson Button</t>
+  </si>
+  <si>
+    <t>1977 Brazilian Grand Prix</t>
+  </si>
+  <si>
+    <t>Lewis Hamilton</t>
+  </si>
+  <si>
+    <t>Nigel Mansell</t>
+  </si>
+  <si>
+    <t>Jody Scheckter</t>
+  </si>
+  <si>
+    <t>Michael Schumacher</t>
+  </si>
+  <si>
+    <t>1991 Belgian Grand Prix</t>
+  </si>
+  <si>
+    <t>Ayrton Senna</t>
   </si>
 </sst>
 </file>
@@ -180,8 +207,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -465,7 +495,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G12"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,6 +546,9 @@
       <c r="F2" t="s">
         <v>0</v>
       </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -530,6 +563,9 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
       <c r="F3" t="s">
         <v>1</v>
       </c>
@@ -547,8 +583,14 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
       <c r="F4" t="s">
         <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -564,6 +606,9 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
       <c r="F5" t="s">
         <v>3</v>
       </c>
@@ -581,6 +626,9 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
@@ -598,6 +646,9 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
@@ -615,6 +666,9 @@
       <c r="D8" t="s">
         <v>4</v>
       </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
       <c r="F8" t="s">
         <v>25</v>
       </c>
@@ -623,7 +677,7 @@
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>191</v>
       </c>
       <c r="C9">
@@ -632,8 +686,14 @@
       <c r="D9" t="s">
         <v>4</v>
       </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
       <c r="F9" t="s">
         <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -649,6 +709,9 @@
       <c r="D10" t="s">
         <v>4</v>
       </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
       <c r="F10" t="s">
         <v>28</v>
       </c>
@@ -666,6 +729,9 @@
       <c r="D11" t="s">
         <v>4</v>
       </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
       <c r="F11" t="s">
         <v>29</v>
       </c>
@@ -682,6 +748,9 @@
       </c>
       <c r="D12" t="s">
         <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
       </c>
       <c r="F12" t="s">
         <v>35</v>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\Websites\Diecast Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC72B8D-D9B2-4166-A51D-D682850CB52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED11DF7-661F-4C88-9D20-3C01376A0CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="2" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -78,21 +78,51 @@
     <t>Mercedes Benz</t>
   </si>
   <si>
+    <t>Coureur</t>
+  </si>
+  <si>
+    <t>Afbeelding</t>
+  </si>
+  <si>
+    <t>Opmerking</t>
+  </si>
+  <si>
+    <t>Niki Lauda</t>
+  </si>
+  <si>
+    <t>1978 Sweden Grand Prix</t>
+  </si>
+  <si>
+    <t>Jenson Button</t>
+  </si>
+  <si>
+    <t>1977 Brazilian Grand Prix</t>
+  </si>
+  <si>
+    <t>Lewis Hamilton</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>FW14B</t>
+  </si>
+  <si>
+    <t>Nigel Mansell</t>
+  </si>
+  <si>
     <t>5.jpg</t>
   </si>
   <si>
-    <t>FW14B</t>
-  </si>
-  <si>
-    <t>Williams</t>
-  </si>
-  <si>
     <t>Tyrrell</t>
   </si>
   <si>
     <t>P34</t>
   </si>
   <si>
+    <t>Jody Scheckter</t>
+  </si>
+  <si>
     <t>6.jpg</t>
   </si>
   <si>
@@ -102,6 +132,9 @@
     <t>B194</t>
   </si>
   <si>
+    <t>Michael Schumacher</t>
+  </si>
+  <si>
     <t>7.jpg</t>
   </si>
   <si>
@@ -111,21 +144,27 @@
     <t>8.jpg</t>
   </si>
   <si>
+    <t>1991 Belgian Grand Prix</t>
+  </si>
+  <si>
+    <t>Toleman</t>
+  </si>
+  <si>
+    <t>TG184</t>
+  </si>
+  <si>
+    <t>Ayrton Senna</t>
+  </si>
+  <si>
     <t>9.jpg</t>
   </si>
   <si>
+    <t>F2002</t>
+  </si>
+  <si>
     <t>10.jpg</t>
   </si>
   <si>
-    <t>Toleman</t>
-  </si>
-  <si>
-    <t>TG184</t>
-  </si>
-  <si>
-    <t>F2002</t>
-  </si>
-  <si>
     <t>McLaren</t>
   </si>
   <si>
@@ -133,55 +172,30 @@
   </si>
   <si>
     <t>11.jpg</t>
-  </si>
-  <si>
-    <t>Afbeelding</t>
-  </si>
-  <si>
-    <t>Opmerking</t>
-  </si>
-  <si>
-    <t>Niki Lauda</t>
-  </si>
-  <si>
-    <t>Coureur</t>
-  </si>
-  <si>
-    <t>1978 Sweden Grand Prix</t>
-  </si>
-  <si>
-    <t>Jenson Button</t>
-  </si>
-  <si>
-    <t>1977 Brazilian Grand Prix</t>
-  </si>
-  <si>
-    <t>Lewis Hamilton</t>
-  </si>
-  <si>
-    <t>Nigel Mansell</t>
-  </si>
-  <si>
-    <t>Jody Scheckter</t>
-  </si>
-  <si>
-    <t>Michael Schumacher</t>
-  </si>
-  <si>
-    <t>1991 Belgian Grand Prix</t>
-  </si>
-  <si>
-    <t>Ayrton Senna</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -207,16 +221,76 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -227,6 +301,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}" name="Tabel1" displayName="Tabel1" ref="A1:G12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G12" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{7B12B4C9-9D0F-404E-96CF-4402E82C6B53}" name="Merk" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{0DBF692F-6AFF-4005-806C-052F43D9E3CB}" name="Model" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{3F4E2485-ED26-4658-ACDA-601FA5625322}" name="Jaar" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{18D91A25-42F7-4C0C-B904-E9C2959ECF18}" name="Schaal" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{9E495D13-6349-42B7-ABE5-9A80A74124F7}" name="Coureur" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{6DDDBC0D-8680-4900-B2D0-A3204004A229}" name="Afbeelding" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{A60FB01B-EAB7-4ACD-8007-99EBCA5DC948}" name="Opmerking" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,272 +581,286 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E601C30-0A40-4B5A-BCEE-4E305CFE4C02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="27.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="27.85546875" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="1" max="2" width="27.85546875" style="2"/>
+    <col min="4" max="4" width="27.85546875" style="2"/>
+    <col min="5" max="5" width="27.85546875" style="6"/>
+    <col min="6" max="16384" width="27.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1978</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2009</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1977</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1992</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1976</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1994</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3">
+        <v>191</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1991</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>1978</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>2009</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C10" s="3">
+        <v>1984</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>1977</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2002</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1988</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>2014</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>1992</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>1976</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>1994</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1">
-        <v>191</v>
-      </c>
-      <c r="C9">
-        <v>1991</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10">
-        <v>1984</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11">
-        <v>2002</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12">
-        <v>1988</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
+      <c r="G12" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\Websites\Diecast Project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED11DF7-661F-4C88-9D20-3C01376A0CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89B87C3-95DA-46F8-AA82-60C0F43C6365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>1.jpg</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>11.jpg</t>
+  </si>
+  <si>
+    <t>Categorie</t>
+  </si>
+  <si>
+    <t>Racecar</t>
   </si>
 </sst>
 </file>
@@ -245,7 +251,10 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -304,16 +313,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}" name="Tabel1" displayName="Tabel1" ref="A1:G12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G12" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7B12B4C9-9D0F-404E-96CF-4402E82C6B53}" name="Merk" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{0DBF692F-6AFF-4005-806C-052F43D9E3CB}" name="Model" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{3F4E2485-ED26-4658-ACDA-601FA5625322}" name="Jaar" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{18D91A25-42F7-4C0C-B904-E9C2959ECF18}" name="Schaal" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{9E495D13-6349-42B7-ABE5-9A80A74124F7}" name="Coureur" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{6DDDBC0D-8680-4900-B2D0-A3204004A229}" name="Afbeelding" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{A60FB01B-EAB7-4ACD-8007-99EBCA5DC948}" name="Opmerking" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}" name="Tabel1" displayName="Tabel1" ref="A1:H12" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H12" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{7B12B4C9-9D0F-404E-96CF-4402E82C6B53}" name="Merk" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{0DBF692F-6AFF-4005-806C-052F43D9E3CB}" name="Model" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{3F4E2485-ED26-4658-ACDA-601FA5625322}" name="Jaar" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{18D91A25-42F7-4C0C-B904-E9C2959ECF18}" name="Schaal" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{9E495D13-6349-42B7-ABE5-9A80A74124F7}" name="Coureur" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{6DDDBC0D-8680-4900-B2D0-A3204004A229}" name="Afbeelding" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{A60FB01B-EAB7-4ACD-8007-99EBCA5DC948}" name="Opmerking" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{4540CB39-5434-4B12-A339-C78DADFA6861}" name="Categorie" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -582,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +606,7 @@
     <col min="6" max="16384" width="27.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -618,8 +628,11 @@
       <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -641,8 +654,11 @@
       <c r="G2" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -662,8 +678,11 @@
         <v>1</v>
       </c>
       <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -685,8 +704,11 @@
       <c r="G4" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -706,8 +728,11 @@
         <v>3</v>
       </c>
       <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -727,8 +752,11 @@
         <v>28</v>
       </c>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -748,8 +776,11 @@
         <v>32</v>
       </c>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -769,8 +800,11 @@
         <v>36</v>
       </c>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -792,8 +826,11 @@
       <c r="G9" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
@@ -813,8 +850,11 @@
         <v>43</v>
       </c>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -834,8 +874,11 @@
         <v>45</v>
       </c>
       <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
@@ -855,6 +898,9 @@
         <v>48</v>
       </c>
       <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89B87C3-95DA-46F8-AA82-60C0F43C6365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847FB463-84B1-4C3C-9D41-5FAAA5834C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>1.jpg</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Racecar</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -595,7 +598,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +680,9 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="H3" s="3" t="s">
         <v>50</v>
       </c>
@@ -727,7 +732,9 @@
       <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -751,7 +758,9 @@
       <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="H6" s="3" t="s">
         <v>50</v>
       </c>
@@ -775,7 +784,9 @@
       <c r="F7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="H7" s="3" t="s">
         <v>50</v>
       </c>
@@ -799,7 +810,9 @@
       <c r="F8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="H8" s="3" t="s">
         <v>50</v>
       </c>
@@ -849,7 +862,9 @@
       <c r="F10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>50</v>
       </c>
@@ -873,7 +888,9 @@
       <c r="F11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="H11" s="3" t="s">
         <v>50</v>
       </c>
@@ -897,7 +914,9 @@
       <c r="F12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="H12" s="3" t="s">
         <v>50</v>
       </c>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847FB463-84B1-4C3C-9D41-5FAAA5834C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B4254D-F7C4-419B-B824-5B3B8FF93928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
   <si>
     <t>1.jpg</t>
   </si>
@@ -181,6 +190,57 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>25.jpg</t>
+  </si>
+  <si>
+    <t>Helmet</t>
+  </si>
+  <si>
+    <t>Austrian GP</t>
+  </si>
+  <si>
+    <t>Schuberth</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>RedBull Racing</t>
+  </si>
+  <si>
+    <t>Max Verstappen</t>
+  </si>
+  <si>
+    <t>27.jpg</t>
+  </si>
+  <si>
+    <t>31.jpg</t>
+  </si>
+  <si>
+    <t>32.jpg</t>
+  </si>
+  <si>
+    <t>35.jpg</t>
+  </si>
+  <si>
+    <t>76.jpg</t>
+  </si>
+  <si>
+    <t>Belgian GP</t>
+  </si>
+  <si>
+    <t>Jaar 2019</t>
+  </si>
+  <si>
+    <t>Jaar 2020</t>
+  </si>
+  <si>
+    <t>Miami GP</t>
+  </si>
+  <si>
+    <t>Austria GP</t>
   </si>
 </sst>
 </file>
@@ -316,8 +376,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}" name="Tabel1" displayName="Tabel1" ref="A1:H12" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H12" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}" name="Tabel1" displayName="Tabel1" ref="A1:H18" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H18" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7B12B4C9-9D0F-404E-96CF-4402E82C6B53}" name="Merk" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{0DBF692F-6AFF-4005-806C-052F43D9E3CB}" name="Model" dataDxfId="6"/>
@@ -595,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,6 +981,162 @@
         <v>50</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B4254D-F7C4-419B-B824-5B3B8FF93928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA98657C-989E-441B-8265-5ACABADB3952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
   <si>
     <t>1.jpg</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Categorie</t>
   </si>
   <si>
-    <t>Racecar</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -241,6 +238,27 @@
   </si>
   <si>
     <t>Austria GP</t>
+  </si>
+  <si>
+    <t>14.jpg</t>
+  </si>
+  <si>
+    <t>Spark Models</t>
+  </si>
+  <si>
+    <t>Le Mans</t>
+  </si>
+  <si>
+    <t>Dallara P217</t>
+  </si>
+  <si>
+    <t>Boxed - S7015</t>
+  </si>
+  <si>
+    <t>Racing Team Nederland - No.29</t>
+  </si>
+  <si>
+    <t>F1</t>
   </si>
 </sst>
 </file>
@@ -376,8 +394,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}" name="Tabel1" displayName="Tabel1" ref="A1:H18" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H18" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}" name="Tabel1" displayName="Tabel1" ref="A1:H19" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H19" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7B12B4C9-9D0F-404E-96CF-4402E82C6B53}" name="Merk" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{0DBF692F-6AFF-4005-806C-052F43D9E3CB}" name="Model" dataDxfId="6"/>
@@ -655,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H2" sqref="H2:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +736,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -741,10 +759,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -770,7 +788,7 @@
         <v>23</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -793,10 +811,10 @@
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -819,10 +837,10 @@
         <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -845,10 +863,10 @@
         <v>32</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -871,10 +889,10 @@
         <v>36</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -900,7 +918,7 @@
         <v>39</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -923,10 +941,10 @@
         <v>43</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -949,10 +967,10 @@
         <v>45</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -975,166 +993,192 @@
         <v>48</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="3">
         <v>2020</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="3">
         <v>2019</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="3">
         <v>2019</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="3">
         <v>2020</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="3">
         <v>2022</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="3">
         <v>2022</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>53</v>
+      <c r="G19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA98657C-989E-441B-8265-5ACABADB3952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73509741-8EEB-4E3E-9602-19C11936BBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
   <si>
     <t>1.jpg</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>F1</t>
+  </si>
+  <si>
+    <t>15.jpg</t>
+  </si>
+  <si>
+    <t>Cetilar Villorba Corse</t>
+  </si>
+  <si>
+    <t>Boxed - S7027</t>
   </si>
 </sst>
 </file>
@@ -394,8 +403,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}" name="Tabel1" displayName="Tabel1" ref="A1:H19" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H19" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}" name="Tabel1" displayName="Tabel1" ref="A1:H20" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H20" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7B12B4C9-9D0F-404E-96CF-4402E82C6B53}" name="Merk" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{0DBF692F-6AFF-4005-806C-052F43D9E3CB}" name="Model" dataDxfId="6"/>
@@ -673,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H12"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,6 +1190,32 @@
         <v>70</v>
       </c>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73509741-8EEB-4E3E-9602-19C11936BBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AD0AE9-F42E-4C0C-88CD-EA8622100366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,18 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
   <si>
-    <t>1.jpg</t>
-  </si>
-  <si>
-    <t>2.jpg</t>
-  </si>
-  <si>
-    <t>3.jpg</t>
-  </si>
-  <si>
-    <t>4.jpg</t>
-  </si>
-  <si>
     <t>1:43</t>
   </si>
   <si>
@@ -120,9 +108,6 @@
     <t>Nigel Mansell</t>
   </si>
   <si>
-    <t>5.jpg</t>
-  </si>
-  <si>
     <t>Tyrrell</t>
   </si>
   <si>
@@ -132,9 +117,6 @@
     <t>Jody Scheckter</t>
   </si>
   <si>
-    <t>6.jpg</t>
-  </si>
-  <si>
     <t>Benetton</t>
   </si>
   <si>
@@ -144,15 +126,9 @@
     <t>Michael Schumacher</t>
   </si>
   <si>
-    <t>7.jpg</t>
-  </si>
-  <si>
     <t>Jordan</t>
   </si>
   <si>
-    <t>8.jpg</t>
-  </si>
-  <si>
     <t>1991 Belgian Grand Prix</t>
   </si>
   <si>
@@ -165,33 +141,21 @@
     <t>Ayrton Senna</t>
   </si>
   <si>
-    <t>9.jpg</t>
-  </si>
-  <si>
     <t>F2002</t>
   </si>
   <si>
-    <t>10.jpg</t>
-  </si>
-  <si>
     <t>McLaren</t>
   </si>
   <si>
     <t>MP 4/4</t>
   </si>
   <si>
-    <t>11.jpg</t>
-  </si>
-  <si>
     <t>Categorie</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>25.jpg</t>
-  </si>
-  <si>
     <t>Helmet</t>
   </si>
   <si>
@@ -210,21 +174,6 @@
     <t>Max Verstappen</t>
   </si>
   <si>
-    <t>27.jpg</t>
-  </si>
-  <si>
-    <t>31.jpg</t>
-  </si>
-  <si>
-    <t>32.jpg</t>
-  </si>
-  <si>
-    <t>35.jpg</t>
-  </si>
-  <si>
-    <t>76.jpg</t>
-  </si>
-  <si>
     <t>Belgian GP</t>
   </si>
   <si>
@@ -240,9 +189,6 @@
     <t>Austria GP</t>
   </si>
   <si>
-    <t>14.jpg</t>
-  </si>
-  <si>
     <t>Spark Models</t>
   </si>
   <si>
@@ -261,13 +207,67 @@
     <t>F1</t>
   </si>
   <si>
-    <t>15.jpg</t>
-  </si>
-  <si>
     <t>Cetilar Villorba Corse</t>
   </si>
   <si>
     <t>Boxed - S7027</t>
+  </si>
+  <si>
+    <t>1.png</t>
+  </si>
+  <si>
+    <t>2.png</t>
+  </si>
+  <si>
+    <t>3.png</t>
+  </si>
+  <si>
+    <t>4.png</t>
+  </si>
+  <si>
+    <t>5.png</t>
+  </si>
+  <si>
+    <t>6.png</t>
+  </si>
+  <si>
+    <t>7.png</t>
+  </si>
+  <si>
+    <t>8.png</t>
+  </si>
+  <si>
+    <t>9.png</t>
+  </si>
+  <si>
+    <t>10.png</t>
+  </si>
+  <si>
+    <t>11.png</t>
+  </si>
+  <si>
+    <t>25.png</t>
+  </si>
+  <si>
+    <t>27.png</t>
+  </si>
+  <si>
+    <t>31.png</t>
+  </si>
+  <si>
+    <t>32.png</t>
+  </si>
+  <si>
+    <t>35.png</t>
+  </si>
+  <si>
+    <t>76.png</t>
+  </si>
+  <si>
+    <t>14.png</t>
+  </si>
+  <si>
+    <t>15.png</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,215 +698,215 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3">
         <v>1978</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3">
         <v>2009</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3">
         <v>1977</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3">
         <v>2014</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3">
         <v>1992</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3">
         <v>1976</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3">
         <v>1994</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3">
         <v>191</v>
@@ -915,305 +915,305 @@
         <v>1991</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3">
         <v>1984</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3">
         <v>2002</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3">
         <v>1988</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3">
         <v>2020</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3">
         <v>2019</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C15" s="3">
         <v>2019</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3">
         <v>2020</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3">
         <v>2022</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C18" s="3">
         <v>2022</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C19" s="3">
         <v>2018</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C20" s="3">
         <v>2018</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AD0AE9-F42E-4C0C-88CD-EA8622100366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5EC93C-BD52-443D-B8F0-2CEAFE4FEDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>Brawn</t>
   </si>
   <si>
-    <t>Brawn GP 01</t>
-  </si>
-  <si>
     <t>Alfa Romeo</t>
   </si>
   <si>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t>15.png</t>
+  </si>
+  <si>
+    <t>GP 01</t>
   </si>
 </sst>
 </file>
@@ -685,14 +685,14 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="27.85546875" style="2"/>
     <col min="4" max="4" width="27.85546875" style="2"/>
-    <col min="5" max="5" width="27.85546875" style="6"/>
+    <col min="5" max="5" width="29.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="27.85546875" style="2"/>
   </cols>
   <sheetData>
@@ -710,21 +710,21 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -736,16 +736,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -753,7 +753,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3">
         <v>2009</v>
@@ -762,16 +762,16 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -788,21 +788,21 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -814,24 +814,24 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="3">
         <v>1992</v>
@@ -840,24 +840,24 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="C7" s="3">
         <v>1976</v>
@@ -866,24 +866,24 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C8" s="3">
         <v>1994</v>
@@ -892,21 +892,21 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3">
         <v>191</v>
@@ -918,24 +918,24 @@
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="C10" s="3">
         <v>1984</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -961,7 +961,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3">
         <v>2002</v>
@@ -970,24 +970,24 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C12" s="3">
         <v>1988</v>
@@ -996,180 +996,180 @@
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="3">
         <v>2020</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3">
         <v>2019</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3">
         <v>2019</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3">
         <v>2020</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3">
         <v>2022</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="3">
         <v>2022</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="3">
         <v>2018</v>
@@ -1178,24 +1178,24 @@
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="3">
         <v>2018</v>
@@ -1204,16 +1204,16 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5EC93C-BD52-443D-B8F0-2CEAFE4FEDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4375D7B-1D61-4C6D-B9BD-09A289A08B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="82">
   <si>
     <t>1:43</t>
   </si>
@@ -204,9 +204,6 @@
     <t>F1</t>
   </si>
   <si>
-    <t>Cetilar Villorba Corse</t>
-  </si>
-  <si>
     <t>Boxed - S7027</t>
   </si>
   <si>
@@ -268,6 +265,21 @@
   </si>
   <si>
     <t>GP 01</t>
+  </si>
+  <si>
+    <t>16.png</t>
+  </si>
+  <si>
+    <t>Oreca 07 - Gibson</t>
+  </si>
+  <si>
+    <t>Boxed - S5823</t>
+  </si>
+  <si>
+    <t>Jackie Chan DC Racing - No.37</t>
+  </si>
+  <si>
+    <t>Cetilar Villorba Corse - No.47</t>
   </si>
 </sst>
 </file>
@@ -403,8 +415,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}" name="Tabel1" displayName="Tabel1" ref="A1:H20" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H20" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}" name="Tabel1" displayName="Tabel1" ref="A1:H21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H21" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7B12B4C9-9D0F-404E-96CF-4402E82C6B53}" name="Merk" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{0DBF692F-6AFF-4005-806C-052F43D9E3CB}" name="Model" dataDxfId="6"/>
@@ -682,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +751,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>16</v>
@@ -753,7 +765,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="3">
         <v>2009</v>
@@ -765,7 +777,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>38</v>
@@ -791,7 +803,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>18</v>
@@ -817,7 +829,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>38</v>
@@ -843,7 +855,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>38</v>
@@ -869,7 +881,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>38</v>
@@ -895,7 +907,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>38</v>
@@ -921,7 +933,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>30</v>
@@ -947,7 +959,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>38</v>
@@ -973,7 +985,7 @@
         <v>28</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>38</v>
@@ -999,7 +1011,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>38</v>
@@ -1025,7 +1037,7 @@
         <v>44</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>40</v>
@@ -1051,7 +1063,7 @@
         <v>44</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>45</v>
@@ -1077,7 +1089,7 @@
         <v>44</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>46</v>
@@ -1103,7 +1115,7 @@
         <v>44</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>47</v>
@@ -1129,7 +1141,7 @@
         <v>44</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>48</v>
@@ -1155,7 +1167,7 @@
         <v>44</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>49</v>
@@ -1181,7 +1193,7 @@
         <v>54</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>53</v>
@@ -1204,15 +1216,41 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="H20" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>51</v>
       </c>
     </row>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4375D7B-1D61-4C6D-B9BD-09A289A08B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEB487E-382D-4D98-B0FA-1E58D6564ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="90">
   <si>
     <t>1:43</t>
   </si>
@@ -280,6 +280,30 @@
   </si>
   <si>
     <t>Cetilar Villorba Corse - No.47</t>
+  </si>
+  <si>
+    <t>17.png</t>
+  </si>
+  <si>
+    <t>19.png</t>
+  </si>
+  <si>
+    <t>Porsche Panamera Sport Turismo</t>
+  </si>
+  <si>
+    <t>Race Control - Boxed - S7048</t>
+  </si>
+  <si>
+    <t>Race Control</t>
+  </si>
+  <si>
+    <t>Track Car</t>
+  </si>
+  <si>
+    <t>Track Car - Boxed - S7047</t>
+  </si>
+  <si>
+    <t>Porsche Macan GTS</t>
   </si>
 </sst>
 </file>
@@ -415,8 +439,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}" name="Tabel1" displayName="Tabel1" ref="A1:H21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H21" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}" name="Tabel1" displayName="Tabel1" ref="A1:H23" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H23" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7B12B4C9-9D0F-404E-96CF-4402E82C6B53}" name="Merk" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{0DBF692F-6AFF-4005-806C-052F43D9E3CB}" name="Model" dataDxfId="6"/>
@@ -694,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,6 +1278,58 @@
         <v>51</v>
       </c>
     </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEB487E-382D-4D98-B0FA-1E58D6564ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC56625-85F7-4DD3-92C5-47C9A87BCCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="99">
   <si>
     <t>1:43</t>
   </si>
@@ -304,6 +304,33 @@
   </si>
   <si>
     <t>Porsche Macan GTS</t>
+  </si>
+  <si>
+    <t>18.png</t>
+  </si>
+  <si>
+    <t>Rebellion R13 - Gibson</t>
+  </si>
+  <si>
+    <t>Boxed - S7955</t>
+  </si>
+  <si>
+    <t>Rebellion Racing - No.01</t>
+  </si>
+  <si>
+    <t>20.png</t>
+  </si>
+  <si>
+    <t>98.png</t>
+  </si>
+  <si>
+    <t>Boxed - S7969</t>
+  </si>
+  <si>
+    <t>Vaillante Rebellion</t>
+  </si>
+  <si>
+    <t>Boxed MV09</t>
   </si>
 </sst>
 </file>
@@ -439,8 +466,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}" name="Tabel1" displayName="Tabel1" ref="A1:H23" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H23" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}" name="Tabel1" displayName="Tabel1" ref="A1:H26" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H26" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H26">
+    <sortCondition ref="H1:H26"/>
+  </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7B12B4C9-9D0F-404E-96CF-4402E82C6B53}" name="Merk" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{0DBF692F-6AFF-4005-806C-052F43D9E3CB}" name="Model" dataDxfId="6"/>
@@ -718,15 +748,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.85546875" style="2"/>
+    <col min="1" max="1" width="27.85546875" style="2"/>
+    <col min="2" max="2" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" style="2"/>
     <col min="5" max="5" width="29.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="27.85546875" style="2"/>
@@ -786,22 +817,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
+      <c r="E3" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>38</v>
@@ -812,25 +843,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3">
-        <v>1977</v>
+        <v>1988</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
+      <c r="E4" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>55</v>
@@ -838,22 +869,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="C5" s="3">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>38</v>
@@ -864,25 +895,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3">
-        <v>1992</v>
+        <v>1977</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>22</v>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>55</v>
@@ -890,22 +921,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3">
-        <v>1976</v>
+        <v>2014</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>25</v>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>38</v>
@@ -916,22 +947,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>38</v>
@@ -942,25 +973,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3">
-        <v>191</v>
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C9" s="3">
-        <v>1991</v>
+        <v>1976</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>55</v>
@@ -968,22 +999,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3">
-        <v>1984</v>
+        <v>1994</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>38</v>
@@ -994,13 +1025,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="B11" s="3">
+        <v>191</v>
       </c>
       <c r="C11" s="3">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>0</v>
@@ -1009,10 +1040,10 @@
         <v>28</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>55</v>
@@ -1020,13 +1051,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>0</v>
@@ -1035,7 +1066,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>38</v>
@@ -1309,24 +1340,102 @@
         <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C24" s="3">
         <v>2018</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="D24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H24" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>51</v>
       </c>
     </row>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC56625-85F7-4DD3-92C5-47C9A87BCCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372B2C77-0C01-4C32-8C09-944FEBFDAD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>Mercedes Benz</t>
   </si>
   <si>
-    <t>Coureur</t>
-  </si>
-  <si>
     <t>Afbeelding</t>
   </si>
   <si>
@@ -331,6 +328,9 @@
   </si>
   <si>
     <t>Boxed MV09</t>
+  </si>
+  <si>
+    <t>Coureur/Team</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
     <tableColumn id="2" xr3:uid="{0DBF692F-6AFF-4005-806C-052F43D9E3CB}" name="Model" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{3F4E2485-ED26-4658-ACDA-601FA5625322}" name="Jaar" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{18D91A25-42F7-4C0C-B904-E9C2959ECF18}" name="Schaal" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{9E495D13-6349-42B7-ABE5-9A80A74124F7}" name="Coureur" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{9E495D13-6349-42B7-ABE5-9A80A74124F7}" name="Coureur/Team" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{6DDDBC0D-8680-4900-B2D0-A3204004A229}" name="Afbeelding" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{A60FB01B-EAB7-4ACD-8007-99EBCA5DC948}" name="Opmerking" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{4540CB39-5434-4B12-A339-C78DADFA6861}" name="Categorie" dataDxfId="0"/>
@@ -751,7 +751,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,16 +777,16 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -803,16 +803,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3">
         <v>2002</v>
@@ -829,24 +829,24 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C4" s="3">
         <v>1988</v>
@@ -855,16 +855,16 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -872,7 +872,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="3">
         <v>2009</v>
@@ -881,16 +881,16 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -933,24 +933,24 @@
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C8" s="3">
         <v>1992</v>
@@ -959,24 +959,24 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="C9" s="3">
         <v>1976</v>
@@ -985,24 +985,24 @@
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="C10" s="3">
         <v>1994</v>
@@ -1011,21 +1011,21 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3">
         <v>191</v>
@@ -1037,24 +1037,24 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="C12" s="3">
         <v>1984</v>
@@ -1063,180 +1063,180 @@
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3">
         <v>2020</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3">
         <v>2019</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="3">
         <v>2019</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="3">
         <v>2020</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3">
         <v>2022</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3">
         <v>2022</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="3">
         <v>2018</v>
@@ -1245,24 +1245,24 @@
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="3">
         <v>2018</v>
@@ -1271,24 +1271,24 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="3">
         <v>2017</v>
@@ -1297,24 +1297,24 @@
         <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="3">
         <v>2018</v>
@@ -1323,24 +1323,24 @@
         <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="3">
         <v>2020</v>
@@ -1349,24 +1349,24 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="3">
         <v>2018</v>
@@ -1375,24 +1375,24 @@
         <v>0</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="H24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="3">
         <v>2020</v>
@@ -1401,24 +1401,24 @@
         <v>0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="3">
         <v>2017</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="E26" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="H26" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372B2C77-0C01-4C32-8C09-944FEBFDAD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2F80DB-A874-43EF-959C-B306A90E8030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57600" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="115">
   <si>
     <t>1:43</t>
   </si>
@@ -331,6 +331,54 @@
   </si>
   <si>
     <t>Coureur/Team</t>
+  </si>
+  <si>
+    <t>Alpine A521</t>
+  </si>
+  <si>
+    <t>38.png</t>
+  </si>
+  <si>
+    <t>Bahrain GP - Boxed - S7664</t>
+  </si>
+  <si>
+    <t>Alpine F1 Team - Fernando Alonso - N0.14</t>
+  </si>
+  <si>
+    <t>39.png</t>
+  </si>
+  <si>
+    <t>40.png</t>
+  </si>
+  <si>
+    <t>46.png</t>
+  </si>
+  <si>
+    <t>AMR21</t>
+  </si>
+  <si>
+    <t>Aston Martin Cognizant F1 Team - Lance Stroll - No.18</t>
+  </si>
+  <si>
+    <t>Bahrain GP - Boxed - S7673</t>
+  </si>
+  <si>
+    <t>MCL35M</t>
+  </si>
+  <si>
+    <t>McLaran - Lando Norris - No.4</t>
+  </si>
+  <si>
+    <t>Gulf Livery - 3th Place Monaco GP - Boxed - S7679</t>
+  </si>
+  <si>
+    <t>RB16B</t>
+  </si>
+  <si>
+    <t>Red Bull Racing Honda - Max Verstappen - No.33</t>
+  </si>
+  <si>
+    <t>Honda Special White - S7696</t>
   </si>
 </sst>
 </file>
@@ -466,8 +514,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}" name="Tabel1" displayName="Tabel1" ref="A1:H26" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H26" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}" name="Tabel1" displayName="Tabel1" ref="A1:H30" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H30" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H26">
     <sortCondition ref="H1:H26"/>
   </sortState>
@@ -748,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,6 +1487,110 @@
         <v>50</v>
       </c>
     </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2F80DB-A874-43EF-959C-B306A90E8030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEEFB2F-7C33-4749-B721-75E24A37D7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57600" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -516,8 +516,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}" name="Tabel1" displayName="Tabel1" ref="A1:H30" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H30" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H26">
-    <sortCondition ref="H1:H26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H30">
+    <sortCondition ref="H1:H30"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7B12B4C9-9D0F-404E-96CF-4402E82C6B53}" name="Merk" dataDxfId="7"/>
@@ -798,7 +798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -1125,106 +1125,106 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="C13" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C14" s="3">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="C15" s="3">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="C16" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>41</v>
@@ -1244,10 +1244,10 @@
         <v>43</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>38</v>
@@ -1261,7 +1261,7 @@
         <v>42</v>
       </c>
       <c r="C18" s="3">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>41</v>
@@ -1270,10 +1270,10 @@
         <v>43</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>38</v>
@@ -1281,106 +1281,106 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C19" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="C21" s="3">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="C22" s="3">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1388,22 +1388,22 @@
         <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C23" s="3">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>50</v>
@@ -1414,7 +1414,7 @@
         <v>49</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C24" s="3">
         <v>2018</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>50</v>
@@ -1443,19 +1443,19 @@
         <v>77</v>
       </c>
       <c r="C25" s="3">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>50</v>
@@ -1466,22 +1466,22 @@
         <v>49</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C26" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>50</v>
@@ -1492,25 +1492,25 @@
         <v>49</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C27" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1518,25 +1518,25 @@
         <v>49</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C28" s="3">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1544,25 +1544,25 @@
         <v>49</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C29" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1570,25 +1570,25 @@
         <v>49</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="C30" s="3">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEEFB2F-7C33-4749-B721-75E24A37D7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BAB4D6-1FC3-4EE5-9592-94A60E572C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="117">
   <si>
     <t>1:43</t>
   </si>
@@ -379,6 +379,12 @@
   </si>
   <si>
     <t>Honda Special White - S7696</t>
+  </si>
+  <si>
+    <t>Fabrikant</t>
+  </si>
+  <si>
+    <t>Atlas</t>
   </si>
 </sst>
 </file>
@@ -452,7 +458,10 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -514,20 +523,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}" name="Tabel1" displayName="Tabel1" ref="A1:H30" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H30" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H30">
-    <sortCondition ref="H1:H30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}" name="Tabel1" displayName="Tabel1" ref="A1:I30" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I30" xr:uid="{C8BBCAFC-081A-4B91-B7A3-9B36164A64BA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I30">
+    <sortCondition ref="I1:I30"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7B12B4C9-9D0F-404E-96CF-4402E82C6B53}" name="Merk" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{0DBF692F-6AFF-4005-806C-052F43D9E3CB}" name="Model" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{3F4E2485-ED26-4658-ACDA-601FA5625322}" name="Jaar" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{18D91A25-42F7-4C0C-B904-E9C2959ECF18}" name="Schaal" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{9E495D13-6349-42B7-ABE5-9A80A74124F7}" name="Coureur/Team" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{6DDDBC0D-8680-4900-B2D0-A3204004A229}" name="Afbeelding" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{A60FB01B-EAB7-4ACD-8007-99EBCA5DC948}" name="Opmerking" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{4540CB39-5434-4B12-A339-C78DADFA6861}" name="Categorie" dataDxfId="0"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{7B12B4C9-9D0F-404E-96CF-4402E82C6B53}" name="Fabrikant" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{696B244B-0F9F-4021-9834-D6F8844E60E5}" name="Merk" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{0DBF692F-6AFF-4005-806C-052F43D9E3CB}" name="Model" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{3F4E2485-ED26-4658-ACDA-601FA5625322}" name="Jaar" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{18D91A25-42F7-4C0C-B904-E9C2959ECF18}" name="Schaal" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{9E495D13-6349-42B7-ABE5-9A80A74124F7}" name="Coureur/Team" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{6DDDBC0D-8680-4900-B2D0-A3204004A229}" name="Afbeelding" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{A60FB01B-EAB7-4ACD-8007-99EBCA5DC948}" name="Opmerking" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{4540CB39-5434-4B12-A339-C78DADFA6861}" name="Categorie" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -796,798 +806,852 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="2"/>
-    <col min="2" max="2" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="2"/>
-    <col min="5" max="5" width="29.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="27.85546875" style="2"/>
+    <col min="1" max="2" width="27.85546875" style="2"/>
+    <col min="3" max="3" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="2"/>
+    <col min="6" max="6" width="29.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="27.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>1978</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>2002</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>0</v>
-      </c>
       <c r="E3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>1988</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>0</v>
-      </c>
       <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>2009</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>1977</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>2014</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>1992</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>0</v>
-      </c>
       <c r="E8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>1976</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>0</v>
-      </c>
       <c r="E9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="3">
         <v>1994</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>0</v>
-      </c>
       <c r="E10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="3">
+      <c r="C11" s="3">
         <v>191</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>1991</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>0</v>
-      </c>
       <c r="E11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <v>1984</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>0</v>
-      </c>
       <c r="E12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <v>2021</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>0</v>
-      </c>
       <c r="E13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="3">
         <v>2021</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>0</v>
-      </c>
       <c r="E14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="3">
         <v>2021</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>0</v>
-      </c>
       <c r="E15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>2021</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>0</v>
-      </c>
       <c r="E16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>2020</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="3">
         <v>2019</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>2019</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="3">
         <v>2020</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <v>2022</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="3">
         <v>2022</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="3">
         <v>2018</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>0</v>
-      </c>
       <c r="E23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D24" s="3">
         <v>2018</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>0</v>
-      </c>
       <c r="E24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D25" s="3">
         <v>2017</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>0</v>
-      </c>
       <c r="E25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="3">
+      <c r="D26" s="3">
         <v>2018</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>0</v>
-      </c>
       <c r="E26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D27" s="3">
         <v>2020</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>0</v>
-      </c>
       <c r="E27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="3">
         <v>2018</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>0</v>
-      </c>
       <c r="E28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D29" s="3">
         <v>2020</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>0</v>
-      </c>
       <c r="E29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="3">
+      <c r="D30" s="3">
         <v>2017</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>0</v>
-      </c>
       <c r="E30" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>50</v>
       </c>
     </row>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\DiecastCollection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BAB4D6-1FC3-4EE5-9592-94A60E572C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4BBD7A-A5CC-4FC7-9AA1-71989FDF9481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="125">
   <si>
     <t>1:43</t>
   </si>
@@ -192,6 +192,9 @@
     <t>Dallara P217</t>
   </si>
   <si>
+    <t>Racing Team Nederland</t>
+  </si>
+  <si>
     <t>Boxed - S7015</t>
   </si>
   <si>
@@ -201,6 +204,9 @@
     <t>F1</t>
   </si>
   <si>
+    <t>Cetilar Villorba Corse</t>
+  </si>
+  <si>
     <t>Boxed - S7027</t>
   </si>
   <si>
@@ -270,6 +276,9 @@
     <t>Oreca 07 - Gibson</t>
   </si>
   <si>
+    <t>Jackie Chan DC Racing</t>
+  </si>
+  <si>
     <t>Boxed - S5823</t>
   </si>
   <si>
@@ -309,6 +318,9 @@
     <t>Rebellion R13 - Gibson</t>
   </si>
   <si>
+    <t>Rebellion Racing</t>
+  </si>
+  <si>
     <t>Boxed - S7955</t>
   </si>
   <si>
@@ -336,6 +348,9 @@
     <t>Alpine A521</t>
   </si>
   <si>
+    <t>Alpine F1 Team</t>
+  </si>
+  <si>
     <t>38.png</t>
   </si>
   <si>
@@ -385,6 +400,15 @@
   </si>
   <si>
     <t>Atlas</t>
+  </si>
+  <si>
+    <t>Aston Martin Cognizant F1 Team</t>
+  </si>
+  <si>
+    <t>Red Bull Racing</t>
+  </si>
+  <si>
+    <t>Porsche</t>
   </si>
 </sst>
 </file>
@@ -809,7 +833,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,7 +847,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -838,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>12</v>
@@ -852,7 +876,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -870,18 +894,18 @@
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
@@ -899,18 +923,18 @@
         <v>27</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>34</v>
@@ -928,24 +952,24 @@
         <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D5" s="3">
         <v>2009</v>
@@ -957,18 +981,18 @@
         <v>16</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
@@ -986,18 +1010,18 @@
         <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -1015,18 +1039,18 @@
         <v>18</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>37</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>19</v>
@@ -1044,18 +1068,18 @@
         <v>21</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>37</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>22</v>
@@ -1073,18 +1097,18 @@
         <v>24</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>25</v>
@@ -1102,18 +1126,18 @@
         <v>27</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>37</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>28</v>
@@ -1131,18 +1155,18 @@
         <v>27</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>30</v>
@@ -1160,22 +1184,24 @@
         <v>32</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>37</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="C13" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D13" s="3">
         <v>2021</v>
@@ -1184,25 +1210,27 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D14" s="3">
         <v>2021</v>
@@ -1211,25 +1239,27 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C15" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D15" s="3">
         <v>2021</v>
@@ -1238,25 +1268,27 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="C16" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D16" s="3">
         <v>2021</v>
@@ -1265,23 +1297,25 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C17" s="3" t="s">
         <v>42</v>
       </c>
@@ -1295,7 +1329,7 @@
         <v>43</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>39</v>
@@ -1308,7 +1342,9 @@
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>42</v>
       </c>
@@ -1322,7 +1358,7 @@
         <v>43</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>44</v>
@@ -1335,7 +1371,9 @@
       <c r="A19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>42</v>
       </c>
@@ -1349,7 +1387,7 @@
         <v>43</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>45</v>
@@ -1362,7 +1400,9 @@
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
@@ -1376,7 +1416,7 @@
         <v>43</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>46</v>
@@ -1389,7 +1429,9 @@
       <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>42</v>
       </c>
@@ -1403,7 +1445,7 @@
         <v>43</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>47</v>
@@ -1416,7 +1458,9 @@
       <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C22" s="3" t="s">
         <v>42</v>
       </c>
@@ -1430,7 +1474,7 @@
         <v>43</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>48</v>
@@ -1443,7 +1487,9 @@
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="C23" s="3" t="s">
         <v>51</v>
       </c>
@@ -1454,13 +1500,13 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>50</v>
@@ -1470,7 +1516,9 @@
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="C24" s="3" t="s">
         <v>51</v>
       </c>
@@ -1481,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>50</v>
@@ -1497,9 +1545,11 @@
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="C25" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="3">
         <v>2017</v>
@@ -1508,13 +1558,13 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>50</v>
@@ -1524,9 +1574,11 @@
       <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="C26" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D26" s="3">
         <v>2018</v>
@@ -1535,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>50</v>
@@ -1551,9 +1603,11 @@
       <c r="A27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="C27" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D27" s="3">
         <v>2020</v>
@@ -1562,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="H27" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>50</v>
@@ -1578,9 +1632,11 @@
       <c r="A28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="C28" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D28" s="3">
         <v>2018</v>
@@ -1589,13 +1645,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>50</v>
@@ -1605,9 +1661,11 @@
       <c r="A29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="C29" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D29" s="3">
         <v>2020</v>
@@ -1616,13 +1674,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>50</v>
@@ -1632,9 +1690,11 @@
       <c r="A30" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="C30" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D30" s="3">
         <v>2017</v>
@@ -1643,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>50</v>
